--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFBE2CB-35AB-4866-B38A-399FB70F57B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{AA7B990D-4603-41C0-989E-41C987F4AED3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -784,13 +779,229 @@
   </si>
   <si>
     <t>Nó cho phép các đối tượng thuộc các lớp khác nhau có thể hiểu cùng một thông điệp theo các cách khác nhau.</t>
+  </si>
+  <si>
+    <t>Trình bày tính trừu tượng – abstraction và cho ví dụ ?</t>
+  </si>
+  <si>
+    <t>là sự ẩn đi những chi tiết bên trong và hiển thị ra các chức năng, tính chất này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ví dụ : </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Animal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lớp này có thể được sử dụng để đại diện cho bất kỳ loài động vật nào, cung cấp các phương thức chung như </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>makeSound()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>eat()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sleep()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> các phương thức này mà không cần biết chi tiết về cách thức triển khai bên trong của mỗi phương thức.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Khi đó lớp con (Dog, Cat) phải kế thừa và triển khai phương thức này để xác định hành vi cụ thể của từng loài động vật.</t>
+  </si>
+  <si>
+    <t>Trình bày interface là gì ? đặc điểm của interface ?</t>
+  </si>
+  <si>
+    <t>Phân biệt abstract class và interface</t>
+  </si>
+  <si>
+    <t>Các tính chất của abstract class ?</t>
+  </si>
+  <si>
+    <t>Không thể tạo đối tượng của lớp abstract</t>
+  </si>
+  <si>
+    <t>Lớp abstract có thể có các thuộc tính và phương thức bình thường</t>
+  </si>
+  <si>
+    <t>Một lớp chứa phương thức abstract thì lớp đó phải là abstract</t>
+  </si>
+  <si>
+    <t>Một lớp không phải là abstract kế thừa từ một lớp cha abstract thì</t>
+  </si>
+  <si>
+    <t>phải implement tất cả các phương thức abstract của lớp cha</t>
+  </si>
+  <si>
+    <t>Một lớp abstract kế thừa từ một lớp cha abstract thì có thể không</t>
+  </si>
+  <si>
+    <t>Implement các phương thức abstract của lớp cha</t>
+  </si>
+  <si>
+    <t>Lớp abstract thì không thể là final</t>
+  </si>
+  <si>
+    <t>Phương thức abstract thì không thể là final</t>
+  </si>
+  <si>
+    <t>Interface là một cấu trúc tương tự như lớp,nhưng chỉ chứa các hằng số và abstract method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khái niệm </t>
+  </si>
+  <si>
+    <t>Đặc điểm của interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chỉ chứa các phương thức trừu tượng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">có thể kế thừa từ nhiều interface khác </t>
+  </si>
+  <si>
+    <t>không thể khởi tạo đối tượng của interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface không thể chứa các phương thức không abstract </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface thiết kế để kai báo các phương thức chung cho các lớp không có liên quan tới nhau </t>
+  </si>
+  <si>
+    <r>
+      <t>Interface:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Chỉ chứa các phương thức abstract.</t>
+  </si>
+  <si>
+    <t>Không thể được khởi tạo trực tiếp.</t>
+  </si>
+  <si>
+    <t>Các lớp implement interface.</t>
+  </si>
+  <si>
+    <r>
+      <t>Abstract class:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Có thể chứa cả phương thức abstract và phương thức concrete.</t>
+  </si>
+  <si>
+    <t>Có thể được khởi tạo trực tiếp (tùy thuộc vào ngôn ngữ lập trình).</t>
+  </si>
+  <si>
+    <t>Các lớp kế thừa từ abstract class.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +1053,19 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -878,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -915,6 +1139,21 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -926,23 +1165,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,7 +1232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1056,7 +1284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1250,21 +1478,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D598281-CE83-4F2A-B1B5-E448FF69276B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
@@ -1273,130 +1501,130 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -1405,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30">
+    <row r="21" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -1429,6 +1657,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -1438,165 +1671,160 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE489DAC-E52F-4466-8F48-AB727A931BF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:2" ht="30">
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5">
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
@@ -1611,106 +1839,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7FF908-AA79-45FC-A794-94DBD9398C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="41.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="41.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" ht="47.25" customHeight="1">
-      <c r="B4" s="16" t="s">
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="17" t="s">
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" customHeight="1">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="17" t="s">
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1718,7 +1946,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1726,7 +1954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1734,7 +1962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
@@ -1742,7 +1970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
@@ -1750,33 +1978,33 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1788,4 +2016,185 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C47D67-EDA2-411C-922D-522CE7369079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -995,13 +1002,411 @@
   </si>
   <si>
     <t>Các lớp kế thừa từ abstract class.</t>
+  </si>
+  <si>
+    <t>Mã như thế nào được gọi là mã sạch ? Cho ví dụ</t>
+  </si>
+  <si>
+    <t>Mã như thế nào được gọi là mã bẩn – smell ? Cho ví dụ</t>
+  </si>
+  <si>
+    <t>Trình bày cách đặt tên package, class, method, biến, hằng ?</t>
+  </si>
+  <si>
+    <r>
+      <t>Clean Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một tập hợp các nguyên tắc và phương pháp nhằm viết code dễ đọc, dễ hiểu, dễ bảo trì và dễ sửa đổi. Code được viết theo phong cách Clean Code thường có những đặc điểm sau:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đọc dễ dàng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Code được viết theo cách dễ hiểu cho người đọc, ngay cả khi họ không phải là tác giả của code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dễ hiểu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Code được tổ chức logic và sử dụng các biến, hàm, lớp có tên rõ ràng và mô tả chính xác chức năng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dễ bảo trì:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Code được viết theo cách dễ dàng sửa đổi và cập nhật mà không gây ra lỗi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dễ sửa đổi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Code được viết theo cách dễ dàng thay đổi và mở rộng mà không ảnh hưởng đến phần code còn lại.</t>
+    </r>
+  </si>
+  <si>
+    <t>// Thay vì: 
+int x, y, z;
+// Nên viết:
+ int numberOfStudents;
+ int averageScore;
+ int classID;</t>
+  </si>
+  <si>
+    <t>1. Package:</t>
+  </si>
+  <si>
+    <t>Sử dụng tên viết thường và nối các từ bằng dấu chấm (.).</t>
+  </si>
+  <si>
+    <t>Tránh sử dụng các ký tự đặc biệt, dấu gạch ngang (-) hoặc dấu gạch dưới (_).</t>
+  </si>
+  <si>
+    <t>Đặt tên package mô tả rõ chức năng hoặc lĩnh vực của các class bên trong.</t>
+  </si>
+  <si>
+    <t>2. Class:</t>
+  </si>
+  <si>
+    <t>Nên đặt tên class mô tả bản chất hoặc chức năng chính của class.</t>
+  </si>
+  <si>
+    <t>Tránh sử dụng các từ viết tắt hoặc ký tự đặc biệt.</t>
+  </si>
+  <si>
+    <t>Đảm bảo tên class dễ phân biệt với các class khác trong cùng package.</t>
+  </si>
+  <si>
+    <t>3. Method:</t>
+  </si>
+  <si>
+    <t>Nên đặt tên method mô tả hành động hoặc chức năng cụ thể mà method thực hiện.</t>
+  </si>
+  <si>
+    <t>Sử dụng các động từ ở dạng infinitive (thì nguyên thể) để đặt tên method.</t>
+  </si>
+  <si>
+    <t>Đặt tên method ngắn gọn nhưng đủ ý nghĩa.</t>
+  </si>
+  <si>
+    <t>4. Biến:</t>
+  </si>
+  <si>
+    <t>Nên đặt tên biến mô tả bản chất hoặc giá trị của biến.</t>
+  </si>
+  <si>
+    <t>Sử dụng các từ mô tả rõ ràng hơn so với tên class hoặc method.</t>
+  </si>
+  <si>
+    <t>5. Hằng:</t>
+  </si>
+  <si>
+    <t>Nên đặt tên hằng mô tả giá trị cố định hoặc không thay đổi của hằng.</t>
+  </si>
+  <si>
+    <t>Sử dụng các từ viết tắt hoặc ký tự đặc biệt phù hợp để thể hiện tính chất cố định của hằng.</t>
+  </si>
+  <si>
+    <t>Đặt tên hằng ngắn gọn nhưng đủ ý nghĩa.</t>
+  </si>
+  <si>
+    <t>Sử dụng tên theo dạng hierarchical (phân cấp), bắt đầu từ tên miền rộng nhất đến tên cụ thể nhất. 
+Ví dụ: com.example.myapp.core, com.example.myapp.ui, com.example.myapp.utils.</t>
+  </si>
+  <si>
+    <t>Sử dụng tên viết hoa chữ cái đầu tiên của mỗi từ (camelCase).
+ Ví dụ: Customer, Order, PaymentProcessor.</t>
+  </si>
+  <si>
+    <t>Sử dụng tên viết hoa chữ cái đầu tiên của mỗi từ (camelCase) kết hợp với dấu gạch dưới (_). 
+Ví dụ: TAX_RATE, SHIPPING_COST, DEFAULT_PAGE_SIZE.</t>
+  </si>
+  <si>
+    <t>Sử dụng tên viết thường và nối các từ bằng dấu gạch dưới (_). 
+Ví dụ: customer_name, order_id, product_price.</t>
+  </si>
+  <si>
+    <t>Sử dụng tên viết thường và nối các từ bằng dấu gạch dưới (_). 
+Ví dụ: get_customer_by_id, process_payment, calculate_order_total.</t>
+  </si>
+  <si>
+    <r>
+      <t>Khó khăn trong việc sửa lỗi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khi code bẩn, việc tìm kiếm và sửa lỗi trở nên khó khăn hơn, tốn nhiều thời gian và công sức.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khó khăn trong việc nâng cấp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Việc nâng cấp code bẩn thường dẫn đến nhiều lỗi mới và khiến code càng trở nên khó bảo trì hơn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giảm năng suất:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Việc đọc và hiểu code bẩn tốn nhiều thời gian, khiến lập trình viên mất tập trung và giảm năng suất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tăng nguy cơ bảo mật:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Code bẩn có thể chứa các lỗ hổng bảo mật, khiến ứng dụng dễ bị tấn công hơn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mã bẩn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (hay </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>code smell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) trong lập trình Java là những đoạn mã </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>khó đọc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>khó hiểu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>khó bảo trì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>có khả năng tiềm ẩn lỗi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+ Mặc dù mã bẩn không nhất thiết gây ra lỗi ngay lập tức, nhưng nó có thể dẫn đến nhiều vấn đề trong tương lai như:</t>
+    </r>
+  </si>
+  <si>
+    <t>Tìm hiểu về mô hình MVC trong java? Tác dụng của các thành phần </t>
+  </si>
+  <si>
+    <t>MVC (viết tắt của Model-View-Controller) là một mẫu kiến trúc phần mềm hay mô hình thiết kế để tạo lập giao diện người dùng trên máy tính. MVC chia một ứng dụng thành ba phần tương tác được với nhau, mỗi thành phần có một nhiệm vụ riêng biệt và độc lập với các thành phần khác.</t>
+  </si>
+  <si>
+    <r>
+      <t>Model:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Quản lý, xử lý dữ liệu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>View:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Hiển thị dữ liệu cho người dùng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Controller:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Điều khiển sự tương tác giữa Model và View.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,6 +1471,22 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1102,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1150,8 +1571,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1168,9 +1590,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,21 +1909,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
@@ -1501,130 +1932,130 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="39.75" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -1633,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="45">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1644,7 +2075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -1657,11 +2088,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -1671,160 +2097,165 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="30">
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="30">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30">
       <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.5">
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.5">
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
@@ -1839,14 +2270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="41.7109375" style="14" customWidth="1"/>
@@ -1854,83 +2285,83 @@
     <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="33.75" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" ht="47.25" customHeight="1">
+      <c r="B4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:3" ht="30.75" customHeight="1">
+      <c r="B8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" s="16" t="s">
         <v>69</v>
       </c>
@@ -1938,7 +2369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30">
       <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1946,7 +2377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="30">
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1954,7 +2385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1962,7 +2393,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
@@ -1970,7 +2401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="30">
       <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
@@ -1978,32 +2409,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="14" t="s">
         <v>84</v>
       </c>
@@ -2019,104 +2450,104 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="82.5703125" customWidth="1"/>
     <col min="3" max="3" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30">
       <c r="B4" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30">
       <c r="B5" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2124,7 +2555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>107</v>
       </c>
@@ -2132,36 +2563,36 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
         <v>113</v>
       </c>
@@ -2169,7 +2600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
         <v>114</v>
       </c>
@@ -2177,7 +2608,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
         <v>115</v>
       </c>
@@ -2185,7 +2616,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
         <v>116</v>
       </c>
@@ -2197,4 +2628,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5A280A-B877-4D7E-B0C8-302DBFFAD480}">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="118.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="B2" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="90">
+      <c r="B8" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="B10" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="17"/>
+      <c r="B16" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="24"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="B26" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17"/>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="B31" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="30">
+      <c r="B36" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="30">
+      <c r="B41" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="30">
+      <c r="B46" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C47D67-EDA2-411C-922D-522CE7369079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C12800-7C02-4A0A-BC83-DDE31AE16749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="175">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -1400,6 +1401,39 @@
       </rPr>
       <t> Điều khiển sự tương tác giữa Model và View.</t>
     </r>
+  </si>
+  <si>
+    <t>TDD là gì?</t>
+  </si>
+  <si>
+    <t>Quy trình làm việc với TDD?</t>
+  </si>
+  <si>
+    <t>TDD (Test-Driven Development) là phương pháp phát triển phần mềm hướng kiểm thử, trong đó các bài kiểm thử tự động được viết trước khi viết mã nguồn thực tế. Quy trình này giúp đảm bảo rằng phần mềm được phát triển theo cách đáp ứng các yêu cầu và hoạt động chính xác theo mong muốn.</t>
+  </si>
+  <si>
+    <t>1. Viết Test (màu đỏ)</t>
+  </si>
+  <si>
+    <t>• Fail bởi vì chưa có mã nguồn</t>
+  </si>
+  <si>
+    <t>• Thông thường các IDE sẽ báo message</t>
+  </si>
+  <si>
+    <t>2. Viết mã nguồn (màu xanh)</t>
+  </si>
+  <si>
+    <t>• Viết mã nguồn để vượt qua test</t>
+  </si>
+  <si>
+    <t>3. Tái cấu trúc mã nguồn</t>
+  </si>
+  <si>
+    <t>• Chỉnh sửa mã nguồn để ”tốt” hơn</t>
+  </si>
+  <si>
+    <t>• Cần đảm bảo mã nguồn vẫn vượt qua được các bài test</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1575,6 +1609,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1590,18 +1637,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,7 +1700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1715,7 +1752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1933,58 +1970,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
@@ -1997,46 +2034,46 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
@@ -2049,11 +2086,11 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
@@ -2088,6 +2125,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -2097,11 +2139,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2122,10 +2159,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="B2" s="9" t="s">
@@ -2133,10 +2170,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
@@ -2299,16 +2336,16 @@
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" ht="47.25" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
@@ -2326,10 +2363,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
@@ -2634,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5A280A-B877-4D7E-B0C8-302DBFFAD480}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2654,22 +2691,22 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2689,22 +2726,22 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2712,7 +2749,7 @@
       <c r="A15" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="17"/>
@@ -2722,45 +2759,45 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="17"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="17"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="17"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="23" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="17"/>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="17"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="17"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="24"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2786,7 +2823,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="20" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2811,7 +2848,7 @@
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2836,7 +2873,7 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="20" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2861,7 +2898,7 @@
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2883,6 +2920,84 @@
     <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFD31A-EB9E-4684-986A-BC508CAC9FFE}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45">
+      <c r="A2" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C12800-7C02-4A0A-BC83-DDE31AE16749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7CB21-F846-4CFC-BFED-B78176273448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1636,9 +1636,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2125,11 +2122,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -2139,6 +2131,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2929,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFD31A-EB9E-4684-986A-BC508CAC9FFE}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2946,7 +2943,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="45">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2999,6 +2996,9 @@
       <c r="A14" t="s">
         <v>174</v>
       </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7CB21-F846-4CFC-BFED-B78176273448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A82FD6-7421-43C4-97F2-3A653E793424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="209">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -1434,6 +1435,276 @@
   </si>
   <si>
     <t>• Cần đảm bảo mã nguồn vẫn vượt qua được các bài test</t>
+  </si>
+  <si>
+    <t>Collection là gì ? cho ví dụ về các Collection đã học</t>
+  </si>
+  <si>
+    <t>Các thao tác có thể thực hiện trên Collection ?</t>
+  </si>
+  <si>
+    <t>Các class triển khai của interface Set ?</t>
+  </si>
+  <si>
+    <t>Collection là một tập hợp các đối tượng cùng kiểu dữ liệu được lưu trữ và quản lý một cách hiệu quả</t>
+  </si>
+  <si>
+    <t>ví dụ các Collection đã học :</t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu Array</t>
+  </si>
+  <si>
+    <r>
+      <t>Thêm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thêm phần tử mới vào Collection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xóa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Xóa phần tử khỏi Collection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sửa đổi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thay đổi giá trị của phần tử trong Collection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tìm kiếm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tìm kiếm phần tử trong Collection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lặp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Duyệt qua từng phần tử trong Collection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kiểm tra xem Collection có chứa phần tử nào hay rỗng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Java Collection Framework là một tập hợp các giao diện và lớp được thiết kế để lưu trữ, quản lý và thao tác với các tập hợp dữ liệu</t>
+  </si>
+  <si>
+    <r>
+      <t>Collection:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giao diện cơ bản cho các tập hợp, định nghĩa các thao tác chung như thêm, xóa, sửa đổi, tìm kiếm, lặp,...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Set:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giao diện cho các tập hợp không có thứ tự và duy nhất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>List:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giao diện cho các tập hợp có thứ tự và cho phép truy cập ngẫu nhiên.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Queue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giao diện cho các tập hợp lưu trữ các phần tử theo thứ tự FIFO hoặc LIFO.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Map:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giao diện cho các tập hợp lưu trữ các cặp khóa-giá trị.</t>
+    </r>
+  </si>
+  <si>
+    <t>Các interface chính trong Java Collection Framework?</t>
+  </si>
+  <si>
+    <t>Java Collection Framework là gì? Các interface chính trong Java Collection Framework?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phân biệt so sánh ArrayList và LinkedList ?</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>3) Lớp ArrayList trong java chỉ có thể hoạt động như một list vì nó chỉ implements giao tiếp List.</t>
+  </si>
+  <si>
+    <t>Lớp LinkedList trong java có thể hoạt động như một list và queue(hàng đợi) vì nó implements các giao tiếp List và Deque.</t>
+  </si>
+  <si>
+    <t>1) ArrayList nội bộ sử dụng mảng động để lưu trữ các phần tử.</t>
+  </si>
+  <si>
+    <t>LinkedList nội bộ sử dụng danh sách liên kết doubly để lưu trữ các phần tử.</t>
+  </si>
+  <si>
+    <t>2) Thao tác với ArrayList là chậm bởi vì nó sử dụng nội bộ mảng. Nếu bất kỳ phần tử nào được xoá khỏi mảng, tất cả các bit được chuyển trong bộ nhớ.</t>
+  </si>
+  <si>
+    <t>Thao tác với LinkedList là nhanh hơn so với ArrayList bởi vì nó sử dụng danh sách liên kết doubly do đó không cần chuyển đổi bit nào trong bộ nhớ.</t>
+  </si>
+  <si>
+    <t>4) ArrayList là tốt hơn trong việc lưu trữ và truy cập dữ liệu.</t>
+  </si>
+  <si>
+    <t>LinkedList là tốt hơn trong việc thao tác dữ liệu.</t>
+  </si>
+  <si>
+    <r>
+      <t>HashSet:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu trữ các phần tử dựa trên bảng băm, có hiệu suất truy cập nhanh nhưng không đảm bảo thứ tự.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TreeSet:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu trữ các phần tử dựa trên cây cân bằng, đảm bảo thứ tự tự nhiên và hỗ trợ thao tác tìm kiếm hiệu quả.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LinkedHashSet:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu trữ các phần tử dựa trên danh sách liên kết, đảm bảo thứ tự chèn và hỗ trợ thao tác truy cập hiệu quả.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1557,7 +1828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1636,6 +1907,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2122,6 +2396,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -2131,11 +2410,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2928,7 +3202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFD31A-EB9E-4684-986A-BC508CAC9FFE}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3003,4 +3277,215 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5B7B58-E2B8-4880-9BF9-255BECF29368}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17"/>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17"/>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17"/>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" s="17"/>
+      <c r="B24" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1">
+      <c r="B30" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A82FD6-7421-43C4-97F2-3A653E793424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438F5EFF-F72D-4784-9300-BB9925C713BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -1704,6 +1705,153 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Lưu trữ các phần tử dựa trên danh sách liên kết, đảm bảo thứ tự chèn và hỗ trợ thao tác truy cập hiệu quả.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tại sao phải sử dụng Generic</t>
+  </si>
+  <si>
+    <t>Stack là gì ? ví dụ về cấu trúc dữ liệu ngăn xếp</t>
+  </si>
+  <si>
+    <t>Queue là gì ? ví dụ về cấu trúc dữ liệu hàng đợi</t>
+  </si>
+  <si>
+    <r>
+      <t>Generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (đa hình tham số) là một tính năng mạnh mẽ của Java giúp cải thiện khả năng đọc, bảo trì và tái sử dụng code. Nó cho phép bạn viết code linh hoạt hơn, có thể hoạt động với nhiều loại dữ liệu khác nhau mà không cần phải viết lại code nhiều lần.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lợi ích của Generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -  Giúp phát hiện lỗi ngay tại thời điểm biên dịch,thay vì tại thời điểm thực thi nếu không dùng generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -  Generic cho phép quy định các kiểu dữ liệu được phép sử dụng ở trong một lớp hoặc phương thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -  Nếu kiểu dữ liệu không phù hợp được sử dụng thì sẽ được phát hiện</t>
+  </si>
+  <si>
+    <r>
+      <t>Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một cấu trúc dữ liệu dạng LIFO (Last In, First Out), nghĩa là phần tử được thêm vào sau cùng sẽ là phần tử đầu tiên được lấy ra. Stack thường được ví như một chồng đĩa, nơi bạn chỉ có thể lấy đĩa ở trên cùng ra.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ví dụ về Stack:</t>
+  </si>
+  <si>
+    <r>
+      <t>Quản lý lịch sử trình duyệt web:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khi bạn di chuyển giữa các trang web, trình duyệt sử dụng stack để lưu trữ lịch sử truy cập.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hệ thống undo/redo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các chương trình chỉnh sửa văn bản thường sử dụng stack để lưu trữ các hành động undo/redo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Duyệt biểu thức:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khi đánh giá biểu thức toán học, các phép toán được xử lý theo thứ tự LIFO bằng cách sử dụng stack.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một cấu trúc dữ liệu dạng FIFO (First In, First Out), nghĩa là phần tử được thêm vào trước tiên sẽ là phần tử đầu tiên được lấy ra. Queue thường được ví như một hàng người, nơi người đến trước sẽ được phục vụ trước.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ví dụ về Queue:</t>
+  </si>
+  <si>
+    <r>
+      <t>Xử lý yêu cầu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hệ thống xử lý yêu cầu thường sử dụng queue để lưu trữ các yêu cầu theo thứ tự đến.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Mô phỏng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các mô phỏng hệ thống thường sử dụng queue để mô phỏng các sự kiện xảy ra theo thứ tự thời gian.</t>
     </r>
   </si>
 </sst>
@@ -1893,6 +2041,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1907,9 +2058,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2241,58 +2389,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
@@ -2305,46 +2453,46 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
@@ -2357,11 +2505,11 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
@@ -2396,11 +2544,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -2410,6 +2553,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2430,10 +2578,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="B2" s="9" t="s">
@@ -2441,10 +2589,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="27"/>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
@@ -2607,16 +2755,16 @@
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="47.25" customHeight="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
@@ -2634,10 +2782,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
@@ -3283,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5B7B58-E2B8-4880-9BF9-255BECF29368}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3362,13 +3510,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
         <v>193</v>
@@ -3411,10 +3559,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="17"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="24" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3463,22 +3611,22 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="28"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3488,4 +3636,123 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C090C21D-DA0E-4B34-AC45-F733501AE051}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="109.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17"/>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17"/>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17"/>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="B16" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438F5EFF-F72D-4784-9300-BB9925C713BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944934CA-CBFA-4BA8-B96A-39251D84999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -1852,6 +1853,257 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Các mô phỏng hệ thống thường sử dụng queue để mô phỏng các sự kiện xảy ra theo thứ tự thời gian.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cấu trúc dữ liệu dạng Map là gì ? cho ví dụ ?</t>
+  </si>
+  <si>
+    <t>Các lớp triển khai từ interface Map ?</t>
+  </si>
+  <si>
+    <t>HashMap là gì ?</t>
+  </si>
+  <si>
+    <t>LinkedHashMap có điểm gì khác so với HashMap ?</t>
+  </si>
+  <si>
+    <t>TreeMap là gì ? các đặc điểm của nó ?</t>
+  </si>
+  <si>
+    <t>Trình bày khái niệm binary tree ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">là một tập hợp các cặp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Mỗi cặp key-value đại diện cho một sự liên kết giữa một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> duy nhất và một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tương ứng. Key được sử dụng để truy cập value.</t>
+    </r>
+  </si>
+  <si>
+    <t>Giả sử bạn muốn lưu trữ thông tin về sinh viên trong một chương trình. Mỗi sinh viên có một ID duy nhất (key) và các thuộc tính khác như tên, tuổi, ngành học (value). Bạn có thể sử dụng Map để lưu trữ thông tin này. Key sẽ là ID sinh viên và value sẽ là một đối tượng lưu trữ các thuộc tính khác của sinh viên.</t>
+  </si>
+  <si>
+    <t>HashMap, LinkedHashMap, TreeMap,hashTable là các lớp triển khai từ interface Map</t>
+  </si>
+  <si>
+    <r>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một lớp triển khai Map phổ biến sử dụng thuật toán băm (hashing) để lưu trữ và truy cập dữ liệu</t>
+    </r>
+  </si>
+  <si>
+    <t>Ưu điểm:</t>
+  </si>
+  <si>
+    <t>Truy cập value dựa trên key rất nhanh.</t>
+  </si>
+  <si>
+    <t>Hiệu quả sử dụng bộ nhớ.</t>
+  </si>
+  <si>
+    <t>Nhược điểm:</t>
+  </si>
+  <si>
+    <t>Thứ tự các phần tử trong Map không được bảo đảm.</t>
+  </si>
+  <si>
+    <t>Không thể sử dụng key null.</t>
+  </si>
+  <si>
+    <r>
+      <t>LinkedHashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một lớp con của HashMap, kế thừa các tính năng của HashMap nhưng có thêm một số đặc điểm khác:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TreeMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một lớp triển khai Map sử dụng cây đỏ đen (red-black tree) để lưu trữ dữ liệu. Cây đỏ đen là một cấu trúc dữ liệu cây nhị phân tự cân bằng, đảm bảo các phần tử trong Map được sắp xếp theo thứ tự key.</t>
+    </r>
+  </si>
+  <si>
+    <t>Đặc điểm:</t>
+  </si>
+  <si>
+    <r>
+      <t>Sắp xếp theo thứ tự:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các phần tử trong Map được sắp xếp theo thứ tự key.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Truy cập nhanh:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Việc truy cập value dựa trên key vẫn khá nhanh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hiệu quả:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TreeMap sử dụng cây đỏ đen để đảm bảo hiệu quả truy cập, chèn và xóa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng TreeMap khi:</t>
+  </si>
+  <si>
+    <t>Bạn cần sắp xếp các phần tử trong Map theo thứ tự key.</t>
+  </si>
+  <si>
+    <t>Bạn cần truy cập nhanh value dựa trên key.</t>
+  </si>
+  <si>
+    <t>Bạn cần hiệu quả cho các thao tác truy cập, chèn và xóa.</t>
+  </si>
+  <si>
+    <r>
+      <t>Binary tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (hay còn gọi là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cây nhị phân</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) là một cấu trúc dữ liệu dạng cây, trong đó mỗi nút có tối đa hai nút con: nút con trái và nút con phải. Mỗi nút có một giá trị (value) và hai con trỏ (pointer) trỏ đến nút con trái và nút con phải.</t>
     </r>
   </si>
 </sst>
@@ -1976,7 +2228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2058,6 +2310,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2544,6 +2805,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -2553,11 +2819,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3642,7 +3903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C090C21D-DA0E-4B34-AC45-F733501AE051}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3694,7 +3955,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
         <v>217</v>
@@ -3755,4 +4016,190 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928DE474-8EEB-460F-8D67-51113618218C}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="108.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="17"/>
+      <c r="B2" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="10.5" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17"/>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="10.5" customHeight="1">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="9" customHeight="1">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="B32" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944934CA-CBFA-4BA8-B96A-39251D84999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2ED2C-ED08-4997-B740-B890712ABABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="282">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -2106,12 +2107,111 @@
       <t>) là một cấu trúc dữ liệu dạng cây, trong đó mỗi nút có tối đa hai nút con: nút con trái và nút con phải. Mỗi nút có một giá trị (value) và hai con trỏ (pointer) trỏ đến nút con trái và nút con phải.</t>
     </r>
   </si>
+  <si>
+    <t>Mô tả thuật toán:</t>
+  </si>
+  <si>
+    <t>1. Thuật toán nổi bọt duyệt qua mảng từ đầu đến cuối nhiều lần.</t>
+  </si>
+  <si>
+    <t>2. Trong mỗi vòng lặp, nó so sánh từng cặp phần tử liền kề và hoán đổi nếu chúng sai thứ tự.</t>
+  </si>
+  <si>
+    <t>3. Vòng lặp tiếp tục cho đến khi không có cặp phần tử nào cần hoán đổi nữa.</t>
+  </si>
+  <si>
+    <t>Trường hợp mảng đã sắp xếp:</t>
+  </si>
+  <si>
+    <t>Khi mảng đã được sắp xếp, thuật toán vẫn cần thực hiện ít nhất một vòng lặp để kiểm chứng rằng không có phần tử nào cần hoán đổi.</t>
+  </si>
+  <si>
+    <t>Trong vòng lặp đầu tiên, không có phần tử nào bị hoán đổi, do đó thuật toán sẽ dừng lại ngay sau vòng lặp này.</t>
+  </si>
+  <si>
+    <r>
+      <t>Số vòng lặp tối đa trong trường hợp mảng đã sắp xếp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 vòng lặp.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ý tưởng triển khai thuật toán sắp xếp chọn (Selection Sort)</t>
+  </si>
+  <si>
+    <t>1. Thuật toán duyệt qua mảng nhiều lần, mỗi lần tìm phần tử nhỏ nhất (hoặc lớn nhất) từ phần chưa sắp xếp và đặt nó ở vị trí đúng.</t>
+  </si>
+  <si>
+    <t>2. Chia mảng thành hai phần: phần đã sắp xếp và phần chưa sắp xếp. Ban đầu, phần đã sắp xếp là trống.</t>
+  </si>
+  <si>
+    <t>3. Trong mỗi lần lặp, chọn phần tử nhỏ nhất từ phần chưa sắp xếp và hoán đổi nó với phần tử đầu tiên của phần chưa sắp xếp.</t>
+  </si>
+  <si>
+    <t>Trường hợp tối ưu:</t>
+  </si>
+  <si>
+    <t>Số vòng lặp là cố định và không phụ thuộc vào trạng thái ban đầu của mảng.</t>
+  </si>
+  <si>
+    <t>Luôn luôn là n - 1 vòng lặp, với n là số phần tử trong mảng.</t>
+  </si>
+  <si>
+    <t>Trường hợp tệ nhất:</t>
+  </si>
+  <si>
+    <t>Tương tự như trường hợp tối ưu, số vòng lặp vẫn là n - 1.</t>
+  </si>
+  <si>
+    <t>Ý tưởng triển khai thuật toán sắp xếp chèn (Insertion Sort)</t>
+  </si>
+  <si>
+    <t>1. Thuật toán chia mảng thành phần đã sắp xếp và phần chưa sắp xếp. Ban đầu, phần đã sắp xếp chỉ chứa phần tử đầu tiên.</t>
+  </si>
+  <si>
+    <t>2. Mỗi lần lặp, lấy phần tử đầu tiên của phần chưa sắp xếp, chèn vào vị trí đúng trong phần đã sắp xếp.</t>
+  </si>
+  <si>
+    <t>3. Duyệt qua phần đã sắp xếp từ cuối lên đầu, tìm vị trí chèn đúng.</t>
+  </si>
+  <si>
+    <t>Trường hợp tối ưu (mảng đã sắp xếp):</t>
+  </si>
+  <si>
+    <t>Trong mỗi lần lặp, chỉ cần so sánh một lần để nhận ra rằng phần tử đã ở vị trí đúng.</t>
+  </si>
+  <si>
+    <t>Trường hợp tệ nhất (mảng sắp xếp ngược):</t>
+  </si>
+  <si>
+    <t>Trong mỗi lần lặp, phần tử cần chèn sẽ so sánh với toàn bộ phần tử đã sắp xếp.</t>
+  </si>
+  <si>
+    <t>Y tưởng triển khai thuật toán nổi bọt (Bubble Sort)</t>
+  </si>
+  <si>
+    <t>Tổng số vòng lặp là n−1</t>
+  </si>
+  <si>
+    <t>Số lần so sánh: 1+1+1+…+1=n−1 lần so sánh, với n là số phần tử.</t>
+  </si>
+  <si>
+    <t>Số lần so sánh: 1+2+3+…+(n−1)=n(n−1)/2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,6 +2292,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2228,7 +2336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2296,6 +2404,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2311,13 +2428,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2650,58 +2761,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
@@ -2714,46 +2825,46 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
@@ -2766,11 +2877,11 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
@@ -2805,11 +2916,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -2819,7 +2925,190 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E9F6A-F95A-493A-92AF-19266F78BAB6}">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="118.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18">
+      <c r="A1" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18">
+      <c r="A11" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2839,10 +3128,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="B2" s="9" t="s">
@@ -2850,10 +3139,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
@@ -3016,16 +3305,16 @@
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="47.25" customHeight="1">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
@@ -3043,10 +3332,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
@@ -3872,22 +4161,22 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4022,7 +4311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928DE474-8EEB-460F-8D67-51113618218C}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4039,12 +4328,12 @@
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="17"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -4052,7 +4341,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="10.5" customHeight="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2">
@@ -4126,7 +4415,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="17"/>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>242</v>
       </c>
     </row>

--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2ED2C-ED08-4997-B740-B890712ABABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +17,9 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="316">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -2206,12 +2201,592 @@
   <si>
     <t>Số lần so sánh: 1+2+3+…+(n−1)=n(n−1)/2</t>
   </si>
+  <si>
+    <r>
+      <t>Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một tình huống bất thường xảy ra trong quá trình thực thi chương trình, làm gián đoạn luồng chương trình bình thường.</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception là gì ?</t>
+  </si>
+  <si>
+    <t>Có bao nhiêu loại exception ? Cho 1 số ví dụ và trường hợp xảy ra Exception đó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có 3 loại Exception : </t>
+  </si>
+  <si>
+    <r>
+      <t>Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nó thường xảy ra do các lỗi hệ thống, lỗi môi trường thực thi chương trình hoặc lỗi do lập trình viên không thể kiểm soát.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>OutOfMemoryError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>StackOverflowError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         StackOverflowError:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Xảy ra khi đệ quy quá nhiều lần, làm tràn bộ nhớ đệm ngăn xếp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checked Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Các ngoại lệ này được kiểm tra tại thời điểm biên dịch. Các lập trình viên phải xử lý chúng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FileNotFoundException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IOException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>InterruptedException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FileNotFoundException:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Xảy ra khi cố gắng mở một tập tin không tồn tại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unchecked Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Các ngoại lệ này không được kiểm tra tại thời điểm biên dịch mà được kiểm tra tại thời điểm chạy. Chúng thường là kết quả của các lỗi lập trình.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ArithmeticException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NullPointerException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ArrayIndexOutOfBoundsException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ArithmeticException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Xảy ra khi có lỗi trong các phép toán số học, ví dụ chia cho 0.</t>
+    </r>
+  </si>
+  <si>
+    <t>Các cách xử lý ngoại lệ? Phân biệt try/catch và throws</t>
+  </si>
+  <si>
+    <t>public int factorial(int n) {
+    if (n == 0) { return 1;
+    } else { return n * factorial(n - 1); // Đệ quy quá nhiều lần
+    }
+}</t>
+  </si>
+  <si>
+    <t>Sử dụng khối try-catch:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khối </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chứa đoạn mã có thể phát sinh ngoại lệ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khối </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sau </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để bắt và xử lý ngoại lệ được ném ra.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có thể có nhiều khối </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để bắt các loại ngoại lệ khác nhau.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng throws:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Từ khóa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được sử dụng để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tuyên bố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rằng một phương thức có thể ném ra một loại ngoại lệ cụ thể.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp gọi phương thức phải </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xử lý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ngoại lệ được ném ra hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tuyên bố ném ra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho lớp gọi tiếp theo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phân biệt </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>try/catch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>try/catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Dùng để xử lý ngoại lệ tại nơi nó xảy ra.</t>
+  </si>
+  <si>
+    <t>Cho phép bạn bắt và xử lý ngoại lệ, có thể tiếp tục thực hiện các thao tác khác sau khi ngoại lệ đã được xử lý.</t>
+  </si>
+  <si>
+    <r>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Khai báo ngoại lệ trong chữ ký của phương thức. Điều này yêu cầu phương thức gọi phải xử lý ngoại lệ hoặc tiếp tục truyền ngoại lệ lên.</t>
+  </si>
+  <si>
+    <t>Thường được sử dụng khi bạn muốn phương thức không xử lý ngoại lệ ngay lập tức mà để lớp hoặc phương thức gọi nó xử lý.</t>
+  </si>
+  <si>
+    <t>public class Example {
+    public static void main(String[] args) {
+        int a = 10;  int b = 0;
+        int c = a / b; }// ArithmeticException: / by zero
+}</t>
+  </si>
+  <si>
+    <t>try { FileInputStream fis = new FileInputStream("myfile.txt");
+    // Đọc dữ liệu từ tập tin
+} catch (FileNotFoundException e) {
+    System.out.println("Lỗi: Tập tin không tồn tại!");}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2336,7 +2911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2413,6 +2988,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2428,8 +3006,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2491,7 +3078,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2543,7 +3130,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2737,21 +3324,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
@@ -2760,130 +3347,130 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="29" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="29" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="29" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="30"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="30"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="30"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="30"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -2892,7 +3479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -2903,7 +3490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30">
+    <row r="21" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -2916,6 +3503,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -2925,185 +3517,180 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E9F6A-F95A-493A-92AF-19266F78BAB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>279</v>
       </c>
@@ -3113,155 +3700,344 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="92.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2" spans="1:2" ht="30">
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="30"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5">
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
@@ -3276,14 +4052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="41.7109375" style="14" customWidth="1"/>
@@ -3291,83 +4067,83 @@
     <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33.75" customHeight="1">
+    <row r="3" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="31"/>
-    </row>
-    <row r="4" spans="1:3" ht="47.25" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="C3" s="32"/>
+    </row>
+    <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="31"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" customHeight="1">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="32"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>69</v>
       </c>
@@ -3375,7 +4151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
@@ -3383,7 +4159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -3391,7 +4167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
@@ -3399,7 +4175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
@@ -3407,7 +4183,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
@@ -3415,32 +4191,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>84</v>
       </c>
@@ -3456,31 +4232,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="82.5703125" customWidth="1"/>
     <col min="3" max="3" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -3488,72 +4264,72 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -3561,7 +4337,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>107</v>
       </c>
@@ -3569,36 +4345,36 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>113</v>
       </c>
@@ -3606,7 +4382,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>114</v>
       </c>
@@ -3614,7 +4390,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>115</v>
       </c>
@@ -3622,7 +4398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>116</v>
       </c>
@@ -3637,256 +4413,256 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5A280A-B877-4D7E-B0C8-302DBFFAD480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90">
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:2" ht="45">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="22"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="30">
+    <row r="36" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="30">
+    <row r="41" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="30">
+    <row r="46" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>148</v>
       </c>
@@ -3897,79 +4673,79 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFD31A-EB9E-4684-986A-BC508CAC9FFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
     </row>
   </sheetData>
@@ -3978,136 +4754,136 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5B7B58-E2B8-4880-9BF9-255BECF29368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45">
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="24" t="s">
         <v>196</v>
@@ -4116,7 +4892,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="9" t="s">
         <v>200</v>
@@ -4125,7 +4901,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="9" t="s">
         <v>202</v>
@@ -4134,7 +4910,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="9" t="s">
         <v>198</v>
@@ -4143,7 +4919,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="9" t="s">
         <v>204</v>
@@ -4152,31 +4928,31 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="31" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="31" t="s">
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="31"/>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1">
-      <c r="B30" s="31" t="s">
+      <c r="C29" s="32"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4189,115 +4965,115 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C090C21D-DA0E-4B34-AC45-F733501AE051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="109.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>225</v>
       </c>
@@ -4308,31 +5084,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928DE474-8EEB-460F-8D67-51113618218C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="108.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="25" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>61</v>
       </c>
@@ -4340,149 +5116,149 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="10.5" customHeight="1">
+    <row r="4" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="10.5" customHeight="1">
+    <row r="7" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="19" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>252</v>
       </c>

--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="332">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -2780,6 +2781,198 @@
     // Đọc dữ liệu từ tập tin
 } catch (FileNotFoundException e) {
     System.out.println("Lỗi: Tập tin không tồn tại!");}</t>
+  </si>
+  <si>
+    <t>Stream có bao nhiêu loại ?</t>
+  </si>
+  <si>
+    <t>Trình bày class triển khai đọc ghi character stream ?</t>
+  </si>
+  <si>
+    <t>Ví dụ triển khai character stream bằng code.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Byte Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Xử lý dữ liệu dạng byte (8-bit). Các lớp này thường được sử dụng để đọc và ghi dữ liệu nhị phân như hình ảnh, tệp âm thanh, v.v.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>InputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dành cho việc đọc byte.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OutputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dành cho việc ghi byte.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Character Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Xử lý dữ liệu dạng ký tự (16-bit Unicode). Các lớp này thường được sử dụng để đọc và ghi dữ liệu văn bản.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dành cho việc đọc ký tự.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Writer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dành cho việc ghi ký tự.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stream được phân chia thành hai loại chính:</t>
+  </si>
+  <si>
+    <r>
+      <t>FileReader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Đọc dữ liệu từ tệp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FileWriter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ghi dữ liệu ra tệp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BufferedReader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Đọc dữ liệu hiệu quả hơn bằng cách sử dụng bộ đệm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BufferedWriter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ghi dữ liệu hiệu quả hơn bằng cách sử dụng bộ đệm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>InputStreamReader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chuyển đổi byte stream sang character stream.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OutputStreamWriter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chuyển đổi character stream sang byte stream.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2911,7 +3104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2991,6 +3184,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3006,16 +3211,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3324,7 +3520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3348,58 +3544,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -3412,46 +3608,46 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -3464,11 +3660,11 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -3503,11 +3699,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -3517,6 +3708,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3704,7 +3900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3714,7 +3910,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3724,7 +3920,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3734,7 +3930,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="31" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3759,7 +3955,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="31" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3784,12 +3980,12 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="31" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="29" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3804,12 +4000,12 @@
       </c>
     </row>
     <row r="19" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="29" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="30" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3859,12 +4055,12 @@
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="32" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="32" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3874,13 +4070,127 @@
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="29" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="29" t="s">
         <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="89.7109375" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3904,10 +4214,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -3915,10 +4225,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4081,16 +4391,16 @@
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -4108,10 +4418,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -4937,22 +5247,22 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="346">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -2973,6 +2974,143 @@
       </rPr>
       <t>: Chuyển đổi character stream sang byte stream.</t>
     </r>
+  </si>
+  <si>
+    <t>Trình bày class triển khai đọc ghi byte stream ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serialization là gì ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cách triển khai đọc ghi Object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Serialization là quá trình chuyển đổi trạng thái của một đối tượng Java thành một luồng byte, cho phép lưu trữ đối tượng đó vào đĩa hoặc truyền qua mạng. Quá trình ngược lại gọi là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deserialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, chuyển đổi luồng byte trở lại đối tượng Java ban đầu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Đọc:</t>
+  </si>
+  <si>
+    <r>
+      <t>FileInputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Đọc dữ liệu byte từ một tập tin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BufferedInputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Đọc dữ liệu byte theo từng khối từ một inputStream.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DataInputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Đọc các kiểu dữ liệu cơ bản (int, float, double, v.v.) từ một inputStream.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ghi:</t>
+  </si>
+  <si>
+    <r>
+      <t>FileOutputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ghi dữ liệu byte vào một tập tin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BufferedOutputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ghi dữ liệu byte theo từng khối vào một outputStream.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DataOutputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ghi các kiểu dữ liệu cơ bản (int, float, double, v.v.) vào một outputStream.</t>
+    </r>
+  </si>
+  <si>
+    <t>ObjectInputStream và ObjectOutputStream trong java cho phép chúng ta đọc ghi dữ liệu theo dạng object. Các byte dữ liệu thô sẽ được bao lại bên trong object và chuyển vào object stream.</t>
+  </si>
+  <si>
+    <t>Note: Các object được sử dụng trong Object stream phải implement Serializable. </t>
   </si>
 </sst>
 </file>
@@ -3104,7 +3242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3196,6 +3334,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3211,8 +3352,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3520,7 +3662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3544,58 +3686,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -3608,46 +3750,46 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -3660,11 +3802,11 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -3699,6 +3841,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -3708,11 +3855,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4089,7 +4231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4119,13 +4261,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="33" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4136,13 +4278,13 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="33" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="33" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4191,6 +4333,97 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="39" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4214,10 +4447,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -4225,10 +4458,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4391,16 +4624,16 @@
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -4418,10 +4651,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -5247,22 +5480,22 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="37"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="36"/>
+      <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="36"/>
+      <c r="C30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A363854-B75A-480C-8F33-8A77A8A4A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +26,7 @@
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="369">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -3112,12 +3119,90 @@
   <si>
     <t>Note: Các object được sử dụng trong Object stream phải implement Serializable. </t>
   </si>
+  <si>
+    <t>Các loại đa nhiệm?</t>
+  </si>
+  <si>
+    <t>Khái niệm Thread là gì?</t>
+  </si>
+  <si>
+    <t>Tại Sao cần Đồng bộ Trong đa luồng?</t>
+  </si>
+  <si>
+    <t>Demo khởi tạo 1 thread?</t>
+  </si>
+  <si>
+    <t>Đa nhiệm (multitasking) </t>
+  </si>
+  <si>
+    <t>Đa nhiệm dựa trên luồng (Thread) – Đa luồng (Multithreading)</t>
+  </si>
+  <si>
+    <t>Đa nhiệm dựa trên tiến trình (Process) – Đa tiến trình (Multiprocessing) </t>
+  </si>
+  <si>
+    <t>public class ThreadDemo {
+    public static void main(String[] args) {
+        // Tạo một thread mới
+        Thread thread = new Thread(() -&gt; {
+            System.out.println("Hello from thread!");
+        });
+        // Bắt đầu thread
+        thread.start();
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Đa nhiệm là một quá trình thực hiện nhiều nhiệm vụ cùng một lúc. Chúng ta sử dụng đa nhiệm để tận dụng tính năng của CPU. Đa nhiệm có thể đạt được bằng hai cách: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Đa nhiệm dựa trên tiến trình (Process) – Đa tiến trình (Multiprocessing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Đa nhiệm dựa trên luồng (Thread) – Đa luồng (Multithreading)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Mỗi tiến trình có địa chỉ riêng trong bộ nhớ, tức là mỗi tiến trình phân bổ vùng nhớ riêng biệt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Tiến trình là nặng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Sự giao tiếp giữa các tiến trình có chi phí cao.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Chuyển đổi từ tiến trình này sang tiến trình khác đòi hỏi thời gian để đăng ký việc lưu và tải, các bản đồ bộ nhớ, các danh sách cập nhật, vv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Các luồng chia sẻ không gian địa chỉ ô nhớ giống nhau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Luồng là nhẹ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Sự giao tiếp giữa các luồng có chi phí thấp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Thread là đơn vị thực thi cơ bản trong lập trình đa luồng. Mỗi thread có bộ nhớ đệm riêng, bộ đếm chương trình và trạng thái riêng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Các thread trong cùng một tiến trình chia sẻ không gian bộ nhớ chung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Thread có thể được tạo, khởi động, tạm dừng, tiếp tục và hủy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Đồng bộ giúp đảm bảo tính nhất quán của dữ liệu khi được truy cập và cập nhật bởi nhiều luồng đồng thời.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Nếu không có đồng bộ, có thể xảy ra tình trạng tranh chấp dữ liệu, dẫn đến dữ liệu bị hỏng hoặc kết quả không mong muốn.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3206,6 +3291,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF526069"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF526069"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3242,7 +3340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3337,6 +3435,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3352,9 +3453,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3662,21 +3773,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
@@ -3685,130 +3796,130 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="39.75" customHeight="1">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="37"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="36"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="36"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="37"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="36"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="36"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="37"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -3817,7 +3928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="45">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3828,7 +3939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -3841,11 +3952,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -3855,180 +3961,185 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="28" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="18">
       <c r="A11" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="18">
       <c r="A23" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="10" t="s">
         <v>279</v>
       </c>
@@ -4039,184 +4150,184 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="30" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="18" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="30" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="31" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="30">
       <c r="A6" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="75">
       <c r="A9" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="60">
       <c r="A14" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="30">
       <c r="A16" s="29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="75">
       <c r="A19" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="30" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="18">
       <c r="A28" s="28" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="32" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="30">
       <c r="A33" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="30">
       <c r="A34" s="29" t="s">
         <v>313</v>
       </c>
@@ -4228,109 +4339,109 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="89.7109375" style="9" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="13"/>
       <c r="B3" s="21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="13"/>
       <c r="B4" s="33" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="13"/>
       <c r="B5" s="33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30">
       <c r="B6" s="21" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="13"/>
       <c r="B7" s="33" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="13"/>
       <c r="B8" s="33" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="13"/>
       <c r="B11" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="13"/>
       <c r="B12" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="13"/>
       <c r="B14" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="13" t="s">
         <v>318</v>
       </c>
@@ -4342,86 +4453,85 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="39" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45">
       <c r="B2" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" s="34" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" s="34" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" s="34" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" s="34" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" s="34" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" s="34" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="45">
       <c r="B15" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>345</v>
       </c>
@@ -4432,155 +4542,298 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1CB260-EAE3-4CE3-977E-7A7833DF7B1A}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="93.5703125" style="43" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5">
+      <c r="B10" s="40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="7"/>
+      <c r="B16" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="7"/>
+      <c r="B21" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="150">
+      <c r="B23" s="45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:2" ht="30">
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="30">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30">
       <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.5">
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.5">
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
@@ -4595,14 +4848,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="41.7109375" style="14" customWidth="1"/>
@@ -4610,83 +4863,83 @@
     <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="33.75" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:3" ht="47.25" customHeight="1">
+      <c r="B4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="37"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:3" ht="30.75" customHeight="1">
+      <c r="B8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="38"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="39"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" s="16" t="s">
         <v>69</v>
       </c>
@@ -4694,7 +4947,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30">
       <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
@@ -4702,7 +4955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="30">
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -4710,7 +4963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
@@ -4718,7 +4971,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
@@ -4726,7 +4979,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="30">
       <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
@@ -4734,32 +4987,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="B22" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="14" t="s">
         <v>84</v>
       </c>
@@ -4775,31 +5028,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="82.5703125" customWidth="1"/>
     <col min="3" max="3" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -4807,72 +5060,72 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30">
       <c r="B4" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30">
       <c r="B5" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -4880,7 +5133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>107</v>
       </c>
@@ -4888,36 +5141,36 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
         <v>113</v>
       </c>
@@ -4925,7 +5178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
         <v>114</v>
       </c>
@@ -4933,7 +5186,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
         <v>115</v>
       </c>
@@ -4941,7 +5194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
         <v>116</v>
       </c>
@@ -4956,256 +5209,256 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30">
       <c r="B2" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="B3" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="90">
       <c r="B8" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30">
       <c r="B10" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="45">
       <c r="A16" s="17"/>
       <c r="B16" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="17"/>
       <c r="B17" s="22"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="17"/>
       <c r="B20" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="17"/>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="17"/>
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="B25" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="30">
       <c r="B26" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="B30" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="30">
       <c r="B31" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="30">
       <c r="B36" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="30">
       <c r="B41" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="30">
       <c r="B46" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>148</v>
       </c>
@@ -5216,79 +5469,79 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="45">
       <c r="A2" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9"/>
     </row>
   </sheetData>
@@ -5297,136 +5550,136 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="17"/>
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="17"/>
       <c r="B16" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="17"/>
       <c r="B18" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="17"/>
       <c r="B21" s="24" t="s">
         <v>196</v>
@@ -5435,7 +5688,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" s="17"/>
       <c r="B22" s="9" t="s">
         <v>200</v>
@@ -5444,7 +5697,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="45">
       <c r="A23" s="17"/>
       <c r="B23" s="9" t="s">
         <v>202</v>
@@ -5453,7 +5706,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="45">
       <c r="A24" s="17"/>
       <c r="B24" s="9" t="s">
         <v>198</v>
@@ -5462,7 +5715,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" s="17"/>
       <c r="B25" s="9" t="s">
         <v>204</v>
@@ -5471,31 +5724,31 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="17"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="1:3">
+      <c r="B28" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="37"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+      <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="37"/>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
+      <c r="C29" s="38"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1">
+      <c r="B30" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5508,115 +5761,115 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="109.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="17"/>
       <c r="B11" s="19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="17"/>
       <c r="B12" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="17"/>
       <c r="B13" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30">
       <c r="B16" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="8" t="s">
         <v>225</v>
       </c>
@@ -5627,31 +5880,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="108.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="17"/>
       <c r="B2" s="25" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="45">
       <c r="A3" s="26" t="s">
         <v>61</v>
       </c>
@@ -5659,149 +5912,149 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="10.5" customHeight="1">
       <c r="A4" s="26"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="10.5" customHeight="1">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9" customHeight="1">
       <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="17"/>
       <c r="B18" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="17"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="17"/>
       <c r="B22" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="17"/>
       <c r="B23" s="19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="17"/>
       <c r="B24" s="19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="17"/>
       <c r="B25" s="19" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="B26" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="B28" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="B29" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="30">
       <c r="B32" s="18" t="s">
         <v>252</v>
       </c>

--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A363854-B75A-480C-8F33-8A77A8A4A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +21,7 @@
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="408">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -3197,12 +3192,274 @@
   <si>
     <t xml:space="preserve">  - Nếu không có đồng bộ, có thể xảy ra tình trạng tranh chấp dữ liệu, dẫn đến dữ liệu bị hỏng hoặc kết quả không mong muốn.</t>
   </si>
+  <si>
+    <t>SOLID là gì?</t>
+  </si>
+  <si>
+    <r>
+      <t>SOLID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là viết tắt của 5 nguyên tắc thiết kế hướng đối tượng (OO) được Robert C. Martin đưa ra nhằm giúp các lập trình viên viết ra code dễ hiểu, dễ bảo trì và dễ mở rộng. 5 nguyên tắc này bao gồm:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Single Responsibility Principle (SRP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Một lớp chỉ nên có một trách nhiệm duy nhất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Open/Closed Principle (OCP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các lớp mở rộng cho chức năng mới, đóng cửa cho thay đổi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Liskov Substitution Principle (LSP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các lớp con phải có thể thay thế được cho lớp cha mà không làm ảnh hưởng đến hành vi của chương trình.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Interface Segregation Principle (ISP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thay vì tạo ra một giao diện khổng lồ, hãy tạo ra nhiều giao diện nhỏ hơn và cụ thể hơn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Dependency Inversion Principle (DIP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tách biệt các module phụ thuộc vào abstraction, không phụ thuộc vào concrete classes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ý nghĩa của 5 nguyên lý trong SOLID:</t>
+  </si>
+  <si>
+    <t>1. Single Responsibility Principle (SRP):</t>
+  </si>
+  <si>
+    <t>Giúp code dễ hiểu và dễ bảo trì hơn.</t>
+  </si>
+  <si>
+    <t>Giảm thiểu lỗi và tăng tính linh hoạt của code.</t>
+  </si>
+  <si>
+    <t>Dễ dàng chia nhỏ code thành các module riêng biệt.</t>
+  </si>
+  <si>
+    <t>2. Open/Closed Principle (OCP):</t>
+  </si>
+  <si>
+    <t>Giúp code dễ mở rộng hơn mà không cần sửa đổi code hiện có.</t>
+  </si>
+  <si>
+    <t>Giúp code dễ bảo trì hơn vì các thay đổi chỉ được thực hiện trong các module mở rộng.</t>
+  </si>
+  <si>
+    <t>Giảm thiểu rủi ro khi thay đổi code.</t>
+  </si>
+  <si>
+    <t>3. Liskov Substitution Principle (LSP):</t>
+  </si>
+  <si>
+    <t>Đảm bảo tính nhất quán của hệ thống.</t>
+  </si>
+  <si>
+    <t>Giúp code dễ sử dụng hơn vì các lớp con có thể được sử dụng thay thế cho lớp cha một cách an toàn.</t>
+  </si>
+  <si>
+    <t>Giảm thiểu lỗi do thay đổi code.</t>
+  </si>
+  <si>
+    <t>4. Interface Segregation Principle (ISP):</t>
+  </si>
+  <si>
+    <t>Giúp code dễ sử dụng hơn vì các client chỉ cần sử dụng các interface mà họ thực sự cần.</t>
+  </si>
+  <si>
+    <t>Giảm thiểu coupling giữa các module.</t>
+  </si>
+  <si>
+    <t>Giúp code dễ mở rộng hơn vì các interface mới có thể được thêm vào mà không ảnh hưởng đến các interface hiện có.</t>
+  </si>
+  <si>
+    <t>5. Dependency Inversion Principle (DIP):</t>
+  </si>
+  <si>
+    <t>Giúp code dễ kiểm thử hơn vì các module phụ thuộc vào abstraction, không phụ thuộc vào concrete classes.</t>
+  </si>
+  <si>
+    <t>Giúp code dễ bảo trì hơn vì các thay đổi chỉ được thực hiện trong các module trừu tượng.</t>
+  </si>
+  <si>
+    <t>Giúp code dễ mở rộng hơn vì các module mới có thể được thêm vào mà không cần sửa đổi các module hiện có.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Single Responsibility Principle (SRP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Một lớp chỉ nên có một trách nhiệm duy nhất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Open/Closed Principle (OCP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các lớp mở rộng cho chức năng mới, đóng cửa cho thay đổi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Liskov Substitution Principle (LSP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các lớp con phải có thể thay thế được cho lớp cha mà không làm ảnh hưởng đến hành vi của chương trình.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Interface Segregation Principle (ISP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thay vì tạo ra một giao diện khổng lồ, hãy tạo ra nhiều giao diện nhỏ hơn và cụ thể hơn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Dependency Inversion Principle (DIP):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tách biệt các module phụ thuộc vào abstraction, không phụ thuộc vào concrete classes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là viết tắt của 5 nguyên tắc thiết kế hướng đối tượng (OO) được Robert C. Martin đưa ra nhằm giúp các lập trình viên viết ra code dễ hiểu, dễ bảo trì và dễ mở rộng.
+ 5 nguyên tắc này bao gồm:</t>
+    </r>
+  </si>
+  <si>
+    <t>Áp dụng nguyên tắc SOLID</t>
+  </si>
+  <si>
+    <t>Việc áp dụng nguyên tắc SOLID có thể mang lại nhiều lợi ích cho các dự án phần mềm, bao gồm:</t>
+  </si>
+  <si>
+    <t>Code dễ hiểu, dễ bảo trì và dễ mở rộng hơn.</t>
+  </si>
+  <si>
+    <t>Giúp code dễ sử dụng và dễ kiểm thử hơn.</t>
+  </si>
+  <si>
+    <t>Tuy nhiên, việc áp dụng nguyên tắc SOLID cũng có thể tốn nhiều thời gian và công sức, đặc biệt là đối với các dự án phần mềm lớn.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3304,6 +3561,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3340,7 +3620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3438,6 +3718,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3453,19 +3750,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3773,21 +4069,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
@@ -3796,130 +4092,130 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="36" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="36" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="36" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="37"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="37"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="37"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="37"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="37"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -3928,7 +4224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3939,7 +4235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30">
+    <row r="21" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -3952,6 +4248,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -3961,185 +4262,180 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18">
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18">
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>279</v>
       </c>
@@ -4150,184 +4446,184 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="75">
+    <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="60">
+    <row r="14" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="75">
+    <row r="19" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="30">
+    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>313</v>
       </c>
@@ -4339,109 +4635,109 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="89.7109375" style="9" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="33" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="33" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="33" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>318</v>
       </c>
@@ -4453,85 +4749,85 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="82.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>345</v>
       </c>
@@ -4543,140 +4839,140 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1CB260-EAE3-4CE3-977E-7A7833DF7B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="93.5703125" style="43" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="44"/>
+    <col min="2" max="2" width="93.5703125" style="39" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="42" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="42" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="42" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="41" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="40" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="40" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="40" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="41" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="150">
-      <c r="B23" s="45" t="s">
+    <row r="23" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4685,155 +4981,552 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A84"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="86.85546875" style="49" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+    </row>
+    <row r="74" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+    </row>
+    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="2" spans="1:2" ht="30">
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="37"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="44"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5">
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
@@ -4848,14 +5541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="41.7109375" style="14" customWidth="1"/>
@@ -4863,83 +5556,83 @@
     <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33.75" customHeight="1">
+    <row r="3" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="38"/>
-    </row>
-    <row r="4" spans="1:3" ht="47.25" customHeight="1">
-      <c r="B4" s="38" t="s">
+      <c r="C3" s="45"/>
+    </row>
+    <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="45"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" customHeight="1">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="39"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="46"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>69</v>
       </c>
@@ -4947,7 +5640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
@@ -4955,7 +5648,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -4963,7 +5656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
@@ -4971,7 +5664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
@@ -4979,7 +5672,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
@@ -4987,32 +5680,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>84</v>
       </c>
@@ -5028,31 +5721,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="82.5703125" customWidth="1"/>
     <col min="3" max="3" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -5060,72 +5753,72 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -5133,7 +5826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>107</v>
       </c>
@@ -5141,36 +5834,36 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>113</v>
       </c>
@@ -5178,7 +5871,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>114</v>
       </c>
@@ -5186,7 +5879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>115</v>
       </c>
@@ -5194,7 +5887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>116</v>
       </c>
@@ -5209,256 +5902,256 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90">
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:2" ht="45">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="22"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="30">
+    <row r="36" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="30">
+    <row r="41" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="30">
+    <row r="46" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>148</v>
       </c>
@@ -5469,79 +6162,79 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
     </row>
   </sheetData>
@@ -5550,136 +6243,136 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45">
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="24" t="s">
         <v>196</v>
@@ -5688,7 +6381,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="9" t="s">
         <v>200</v>
@@ -5697,7 +6390,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="9" t="s">
         <v>202</v>
@@ -5706,7 +6399,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="9" t="s">
         <v>198</v>
@@ -5715,7 +6408,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="9" t="s">
         <v>204</v>
@@ -5724,31 +6417,31 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="38" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="38" t="s">
+      <c r="C28" s="45"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="38"/>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1">
-      <c r="B30" s="38" t="s">
+      <c r="C29" s="45"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5761,115 +6454,115 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="109.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>225</v>
       </c>
@@ -5880,31 +6573,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="108.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="25" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>61</v>
       </c>
@@ -5912,149 +6605,149 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="10.5" customHeight="1">
+    <row r="4" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="10.5" customHeight="1">
+    <row r="7" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="19" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>252</v>
       </c>

--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="422">
   <si>
     <t>1. Method là gì?</t>
   </si>
@@ -3453,6 +3454,156 @@
   </si>
   <si>
     <t>Tuy nhiên, việc áp dụng nguyên tắc SOLID cũng có thể tốn nhiều thời gian và công sức, đặc biệt là đối với các dự án phần mềm lớn.</t>
+  </si>
+  <si>
+    <r>
+      <t>Design Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Mô hình thiết kế) là một giải pháp đã được kiểm chứng để giải quyết một vấn đề thiết kế phổ biến trong phần mềm. Nó cung cấp một mẫu mã có thể tái sử dụng để giải quyết vấn đề một cách hiệu quả và linh hoạt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lợi ích sử dụng Design Pattern:</t>
+  </si>
+  <si>
+    <r>
+      <t>Tăng tính tái sử dụng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Design Pattern giúp bạn viết mã hiệu quả hơn và dễ dàng hơn bằng cách cung cấp các giải pháp đã được kiểm chứng cho các vấn đề thiết kế phổ biến.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tăng tính bảo trì:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Design Pattern giúp mã dễ hiểu và dễ bảo trì hơn bằng cách sử dụng các cấu trúc mã rõ ràng và nhất quán.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tăng khả năng mở rộng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Design Pattern giúp mã dễ mở rộng hơn bằng cách cung cấp các giải pháp linh hoạt có thể dễ dàng thích ứng với các yêu cầu mới.</t>
+    </r>
+  </si>
+  <si>
+    <t>Các loại Design Pattern phổ biến:</t>
+  </si>
+  <si>
+    <r>
+      <t>Creational Patterns (Mô hình sáng tạo):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cung cấp cách thức tạo ra các đối tượng. Ví dụ: Singleton, Factory Method, Abstract Factory, Builder.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Structural Patterns (Mô hình cấu trúc):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cách thức sắp xếp các đối tượng để tạo ra các cấu trúc phần mềm. Ví dụ: Adapter, Bridge, Composite, Decorator, Façade, Flyweight, Proxy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Behavioral Patterns (Mô hình hành vi):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cách thức giao tiếp và tương tác giữa các đối tượng. Ví dụ: Chain of Responsibility, Command, Interpreter, Iterator, Mediator, Memento, Observer, State, Strategy, Template Method, Visitor.</t>
+    </r>
+  </si>
+  <si>
+    <t>Singleton là gì?</t>
+  </si>
+  <si>
+    <r>
+      <t>Singleton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một Design Pattern đảm bảo rằng chỉ có một phiên bản duy nhất của một lớp tồn tại trong hệ thống. Singleton thường được sử dụng để cung cấp quyền truy cập toàn cầu vào một tài nguyên được chia sẻ, chẳng hạn như cơ sở dữ liệu hoặc cấu hình ứng dụng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Factory Method Design Pattern là gì?</t>
+  </si>
+  <si>
+    <r>
+      <t>Factory Method Design Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một Design Pattern cung cấp một giao diện để tạo ra các đối tượng, nhưng lớp con quyết định loại đối tượng nào sẽ được tạo ra. Điều này cho phép bạn tạo ra các hệ thống linh hoạt hơn có thể dễ dàng thích ứng với các yêu cầu mới.</t>
+    </r>
+  </si>
+  <si>
+    <t>Design Pattern là gì?</t>
   </si>
 </sst>
 </file>
@@ -3620,7 +3771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3735,6 +3886,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3750,18 +3917,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4069,7 +4229,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4093,58 +4253,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -4157,46 +4317,46 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4209,11 +4369,11 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -4248,11 +4408,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -4262,6 +4417,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4985,164 +5145,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.85546875" style="49" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="86.85546875" style="45" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="44" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="44" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="44"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="44"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="46" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="44" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="45" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="45" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="45" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="44" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="45" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="45" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="45" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="44" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="45" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="45" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="45" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="44" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="45" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="45" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="45" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="44" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="45" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="45" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="45" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="47" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5186,7 +5346,7 @@
       <c r="A41" s="9"/>
     </row>
     <row r="42" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="47" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5324,7 +5484,7 @@
       <c r="A73" s="9"/>
     </row>
     <row r="74" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="47" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5370,6 +5530,95 @@
     <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90.5703125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -5393,10 +5642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -5404,10 +5653,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -5570,16 +5819,16 @@
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -5597,10 +5846,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -6426,22 +6675,22 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="45"/>
+      <c r="C29" s="51"/>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="45"/>
+      <c r="C30" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
